--- a/public/files/Template_Labor_New_2024_New.xlsx
+++ b/public/files/Template_Labor_New_2024_New.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templete 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6851C4-41C2-48DC-B07B-99384735573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E26900-13BF-4DA1-AE3B-FA26B8C2B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="I44" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,9 +1348,18 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="10"/>
+      <c r="Q2" s="9">
+        <f>SUM(E2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <f>SUM(K2:P2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <f>Q2+R2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -1377,9 +1386,18 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="2"/>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q66" si="0">SUM(E3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R66" si="1">SUM(K3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S66" si="2">Q3+R3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -1406,9 +1424,18 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
+      <c r="Q4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1435,9 +1462,18 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="2"/>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -1464,9 +1500,18 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
+      <c r="Q6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -1493,9 +1538,18 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="2"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1522,9 +1576,18 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
+      <c r="Q8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -1551,9 +1614,18 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -1580,9 +1652,18 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
+      <c r="Q10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
@@ -1609,9 +1690,18 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="2"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
@@ -1638,9 +1728,18 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
+      <c r="Q12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -1667,9 +1766,18 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="2"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -1696,9 +1804,18 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
+      <c r="Q14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -1725,9 +1842,18 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="2"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
@@ -1754,9 +1880,18 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
+      <c r="Q16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
@@ -1783,9 +1918,18 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="2"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
@@ -1812,9 +1956,18 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
+      <c r="Q18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
@@ -1841,9 +1994,18 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="2"/>
+      <c r="Q19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
@@ -1870,9 +2032,18 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
+      <c r="Q20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
@@ -1899,9 +2070,18 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="2"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
@@ -1928,9 +2108,18 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="10"/>
+      <c r="Q22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
@@ -1957,9 +2146,18 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="2"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
@@ -1986,9 +2184,18 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="10"/>
+      <c r="Q24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
@@ -2015,9 +2222,18 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="2"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
@@ -2044,9 +2260,18 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="10"/>
+      <c r="Q26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
@@ -2073,9 +2298,18 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="2"/>
+      <c r="Q27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
@@ -2102,9 +2336,18 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="10"/>
+      <c r="Q28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
@@ -2131,9 +2374,18 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="2"/>
+      <c r="Q29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
@@ -2160,9 +2412,18 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="10"/>
+      <c r="Q30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
@@ -2189,9 +2450,18 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="2"/>
+      <c r="Q31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
@@ -2218,9 +2488,18 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="10"/>
+      <c r="Q32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
@@ -2247,9 +2526,18 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="2"/>
+      <c r="Q33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
@@ -2276,9 +2564,18 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="10"/>
+      <c r="Q34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
@@ -2305,9 +2602,18 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="2"/>
+      <c r="Q35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
@@ -2334,9 +2640,18 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="10"/>
+      <c r="Q36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
@@ -2363,9 +2678,18 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="2"/>
+      <c r="Q37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
@@ -2392,9 +2716,18 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="10"/>
+      <c r="Q38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
@@ -2421,9 +2754,18 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="2"/>
+      <c r="Q39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
@@ -2450,9 +2792,18 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="10"/>
+      <c r="Q40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
@@ -2479,9 +2830,18 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="2"/>
+      <c r="Q41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
@@ -2508,9 +2868,18 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="10"/>
+      <c r="Q42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
@@ -2537,9 +2906,18 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="2"/>
+      <c r="Q43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
@@ -2566,9 +2944,18 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="10"/>
+      <c r="Q44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
@@ -2595,9 +2982,18 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="2"/>
+      <c r="Q45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
@@ -2624,9 +3020,18 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="10"/>
+      <c r="Q46" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
@@ -2653,9 +3058,18 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="2"/>
+      <c r="Q47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
@@ -2682,9 +3096,18 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="10"/>
+      <c r="Q48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
@@ -2711,9 +3134,18 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="2"/>
+      <c r="Q49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
@@ -2740,9 +3172,18 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="10"/>
+      <c r="Q50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
@@ -2769,9 +3210,18 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="2"/>
+      <c r="Q51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
@@ -2798,9 +3248,18 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="10"/>
+      <c r="Q52" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
@@ -2827,9 +3286,18 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="2"/>
+      <c r="Q53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
@@ -2856,9 +3324,18 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="10"/>
+      <c r="Q54" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
@@ -2885,9 +3362,18 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="2"/>
+      <c r="Q55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
@@ -2914,9 +3400,18 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="10"/>
+      <c r="Q56" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
@@ -2943,9 +3438,18 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="2"/>
+      <c r="Q57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
@@ -2972,9 +3476,18 @@
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="10"/>
+      <c r="Q58" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
@@ -3001,9 +3514,18 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="2"/>
+      <c r="Q59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
@@ -3030,9 +3552,18 @@
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="10"/>
+      <c r="Q60" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
@@ -3059,9 +3590,18 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="2"/>
+      <c r="Q61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
@@ -3088,9 +3628,18 @@
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="10"/>
+      <c r="Q62" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
@@ -3117,9 +3666,18 @@
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="2"/>
+      <c r="Q63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
@@ -3146,9 +3704,18 @@
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="10"/>
+      <c r="Q64" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
@@ -3175,9 +3742,18 @@
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="2"/>
+      <c r="Q65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
@@ -3204,9 +3780,18 @@
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="10"/>
+      <c r="Q66" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
@@ -3233,9 +3818,18 @@
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="2"/>
+      <c r="Q67" s="3">
+        <f t="shared" ref="Q67:Q111" si="3">SUM(E67:J67)</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <f t="shared" ref="R67:R111" si="4">SUM(K67:P67)</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <f t="shared" ref="S67:S111" si="5">Q67+R67</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
@@ -3262,9 +3856,18 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="10"/>
+      <c r="Q68" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
@@ -3291,9 +3894,18 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="2"/>
+      <c r="Q69" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
@@ -3320,9 +3932,18 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="10"/>
+      <c r="Q70" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
@@ -3349,9 +3970,18 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="2"/>
+      <c r="Q71" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
@@ -3378,9 +4008,18 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="10"/>
+      <c r="Q72" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
@@ -3407,9 +4046,18 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="2"/>
+      <c r="Q73" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
@@ -3436,9 +4084,18 @@
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="10"/>
+      <c r="Q74" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
@@ -3465,9 +4122,18 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="2"/>
+      <c r="Q75" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
@@ -3494,9 +4160,18 @@
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="10"/>
+      <c r="Q76" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
@@ -3523,9 +4198,18 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="2"/>
+      <c r="Q77" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
@@ -3552,9 +4236,18 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="10"/>
+      <c r="Q78" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
@@ -3581,9 +4274,18 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="2"/>
+      <c r="Q79" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
@@ -3610,9 +4312,18 @@
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="10"/>
+      <c r="Q80" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
@@ -3639,9 +4350,18 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="2"/>
+      <c r="Q81" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
@@ -3668,9 +4388,18 @@
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="10"/>
+      <c r="Q82" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
@@ -3697,9 +4426,18 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="2"/>
+      <c r="Q83" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
@@ -3726,9 +4464,18 @@
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="10"/>
+      <c r="Q84" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
@@ -3755,9 +4502,18 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="2"/>
+      <c r="Q85" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
@@ -3784,9 +4540,18 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="10"/>
+      <c r="Q86" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
@@ -3813,9 +4578,18 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="2"/>
+      <c r="Q87" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S87" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
@@ -3842,9 +4616,18 @@
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="9"/>
-      <c r="S88" s="10"/>
+      <c r="Q88" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
@@ -3871,9 +4654,18 @@
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="2"/>
+      <c r="Q89" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
@@ -3900,9 +4692,18 @@
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="10"/>
+      <c r="Q90" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
@@ -3929,9 +4730,18 @@
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="2"/>
+      <c r="Q91" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
@@ -3958,9 +4768,18 @@
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="10"/>
+      <c r="Q92" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
@@ -3987,9 +4806,18 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="2"/>
+      <c r="Q93" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
@@ -4016,9 +4844,18 @@
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="S94" s="10"/>
+      <c r="Q94" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
@@ -4045,9 +4882,18 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="2"/>
+      <c r="Q95" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
@@ -4074,9 +4920,18 @@
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="10"/>
+      <c r="Q96" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
@@ -4103,9 +4958,18 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="2"/>
+      <c r="Q97" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S97" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
@@ -4132,9 +4996,18 @@
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="10"/>
+      <c r="Q98" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
@@ -4161,9 +5034,18 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="2"/>
+      <c r="Q99" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S99" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
@@ -4190,9 +5072,18 @@
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="9"/>
-      <c r="S100" s="10"/>
+      <c r="Q100" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
@@ -4219,9 +5110,18 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="2"/>
+      <c r="Q101" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
@@ -4248,9 +5148,18 @@
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="10"/>
+      <c r="Q102" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
@@ -4277,9 +5186,18 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="2"/>
+      <c r="Q103" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
@@ -4306,9 +5224,18 @@
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="9"/>
-      <c r="S104" s="10"/>
+      <c r="Q104" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
@@ -4335,9 +5262,18 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="2"/>
+      <c r="Q105" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R105" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
@@ -4364,9 +5300,18 @@
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
-      <c r="S106" s="10"/>
+      <c r="Q106" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S106" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
@@ -4393,9 +5338,18 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="2"/>
+      <c r="Q107" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R107" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
@@ -4422,9 +5376,18 @@
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="9"/>
-      <c r="S108" s="10"/>
+      <c r="Q108" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
@@ -4451,9 +5414,18 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="2"/>
+      <c r="Q109" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
@@ -4480,9 +5452,18 @@
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="9"/>
-      <c r="S110" s="10"/>
+      <c r="Q110" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
@@ -4509,9 +5490,18 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="2"/>
+      <c r="Q111" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
@@ -4538,9 +5528,18 @@
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="9"/>
-      <c r="S112" s="10"/>
+      <c r="Q112" s="9">
+        <f t="shared" ref="Q112:Q142" si="6">SUM(E112:J112)</f>
+        <v>0</v>
+      </c>
+      <c r="R112" s="9">
+        <f t="shared" ref="R112:R142" si="7">SUM(K112:P112)</f>
+        <v>0</v>
+      </c>
+      <c r="S112" s="10">
+        <f t="shared" ref="S112:S142" si="8">Q112+R112</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
@@ -4567,9 +5566,18 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="2"/>
+      <c r="Q113" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
@@ -4596,9 +5604,18 @@
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="10"/>
+      <c r="Q114" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S114" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
@@ -4625,9 +5642,18 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="2"/>
+      <c r="Q115" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R115" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S115" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
@@ -4654,9 +5680,18 @@
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
-      <c r="Q116" s="9"/>
-      <c r="R116" s="9"/>
-      <c r="S116" s="10"/>
+      <c r="Q116" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R116" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S116" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
@@ -4683,9 +5718,18 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="2"/>
+      <c r="Q117" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R117" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S117" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
@@ -4712,9 +5756,18 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="9"/>
-      <c r="S118" s="10"/>
+      <c r="Q118" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R118" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S118" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
@@ -4741,9 +5794,18 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
-      <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="2"/>
+      <c r="Q119" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R119" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
@@ -4770,9 +5832,18 @@
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="9"/>
-      <c r="S120" s="10"/>
+      <c r="Q120" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R120" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S120" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
@@ -4799,9 +5870,18 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-      <c r="S121" s="2"/>
+      <c r="Q121" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
@@ -4828,9 +5908,18 @@
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="10"/>
+      <c r="Q122" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S122" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
@@ -4857,9 +5946,18 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="2"/>
+      <c r="Q123" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
@@ -4886,9 +5984,18 @@
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="10"/>
+      <c r="Q124" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S124" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
@@ -4915,9 +6022,18 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="2"/>
+      <c r="Q125" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S125" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
@@ -4944,9 +6060,18 @@
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="10"/>
+      <c r="Q126" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S126" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
@@ -4973,9 +6098,18 @@
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="2"/>
+      <c r="Q127" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S127" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
@@ -5002,9 +6136,18 @@
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
-      <c r="Q128" s="9"/>
-      <c r="R128" s="9"/>
-      <c r="S128" s="10"/>
+      <c r="Q128" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S128" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
@@ -5031,9 +6174,18 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
-      <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="2"/>
+      <c r="Q129" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S129" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
@@ -5060,9 +6212,18 @@
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="10"/>
+      <c r="Q130" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R130" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S130" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
@@ -5089,9 +6250,18 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
-      <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="2"/>
+      <c r="Q131" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R131" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S131" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
@@ -5118,9 +6288,18 @@
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="10"/>
+      <c r="Q132" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R132" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S132" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
@@ -5147,9 +6326,18 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="2"/>
+      <c r="Q133" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R133" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S133" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
@@ -5176,9 +6364,18 @@
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="10"/>
+      <c r="Q134" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R134" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S134" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
@@ -5205,9 +6402,18 @@
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
-      <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="2"/>
+      <c r="Q135" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R135" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S135" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
@@ -5234,9 +6440,18 @@
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
-      <c r="S136" s="10"/>
+      <c r="Q136" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R136" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S136" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
@@ -5263,9 +6478,18 @@
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
-      <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="2"/>
+      <c r="Q137" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R137" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S137" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
@@ -5292,9 +6516,18 @@
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="9"/>
-      <c r="S138" s="10"/>
+      <c r="Q138" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S138" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
@@ -5321,9 +6554,18 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="2"/>
+      <c r="Q139" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S139" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
@@ -5350,9 +6592,18 @@
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="9"/>
-      <c r="S140" s="10"/>
+      <c r="Q140" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S140" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
@@ -5379,9 +6630,18 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="S141" s="2"/>
+      <c r="Q141" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R141" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S141" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
@@ -5408,9 +6668,18 @@
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
       <c r="P142" s="13"/>
-      <c r="Q142" s="14"/>
-      <c r="R142" s="14"/>
-      <c r="S142" s="15"/>
+      <c r="Q142" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R142" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S142" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E143" s="1"/>

--- a/public/files/Template_Labor_New_2024_New.xlsx
+++ b/public/files/Template_Labor_New_2024_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\New Templete 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E26900-13BF-4DA1-AE3B-FA26B8C2B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1D54A-F619-47A1-9AEE-FA31F6DB463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I44" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1336,7 +1336,9 @@
       <c r="D2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1350,7 +1352,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="9">
         <f>SUM(E2:J2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="9">
         <f>SUM(K2:P2)</f>
@@ -1358,7 +1360,7 @@
       </c>
       <c r="S2" s="10">
         <f>Q2+R2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">

--- a/public/files/Template_Labor_New_2024_New.xlsx
+++ b/public/files/Template_Labor_New_2024_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1D54A-F619-47A1-9AEE-FA31F6DB463D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC51D643-C792-4D6C-8493-2724A38D7CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1352,7 +1352,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="9">
         <f>SUM(E2:J2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="9">
         <f>SUM(K2:P2)</f>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="S2" s="10">
         <f>Q2+R2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">

--- a/public/files/Template_Labor_New_2024_New.xlsx
+++ b/public/files/Template_Labor_New_2024_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\19_Cubic Pro\Templete yang akan digunakan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\01_Source code\new_cubic_pro\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC51D643-C792-4D6C-8493-2724A38D7CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B885964D-F7E5-4886-8A1C-66021712B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">LAB!$A$1:$F$1693</definedName>
-    <definedName name="LABOR">Labor!$A$1:$P$142</definedName>
+    <definedName name="LABOR">Labor!$B$1:$Q$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7345" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7487" uniqueCount="247">
   <si>
     <t>ACC CODE</t>
   </si>
@@ -785,6 +785,12 @@
   <si>
     <t>Amount</t>
   </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>HRG1</t>
+  </si>
 </sst>
 </file>
 
@@ -795,7 +801,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +822,12 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -909,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -927,9 +939,6 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,96 +1257,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S218"/>
+  <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="16" width="16" customWidth="1"/>
-    <col min="17" max="19" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="17" width="16" customWidth="1"/>
+    <col min="18" max="20" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16">
+      <c r="F1" s="13">
         <v>45383</v>
       </c>
-      <c r="F1" s="16">
+      <c r="G1" s="13">
         <v>45413</v>
       </c>
-      <c r="G1" s="16">
+      <c r="H1" s="13">
         <v>45444</v>
       </c>
-      <c r="H1" s="16">
+      <c r="I1" s="13">
         <v>45474</v>
       </c>
-      <c r="I1" s="16">
+      <c r="J1" s="13">
         <v>45505</v>
       </c>
-      <c r="J1" s="16">
+      <c r="K1" s="13">
         <v>45536</v>
       </c>
-      <c r="K1" s="16">
+      <c r="L1" s="13">
         <v>45566</v>
       </c>
-      <c r="L1" s="16">
+      <c r="M1" s="13">
         <v>45597</v>
       </c>
-      <c r="M1" s="16">
+      <c r="N1" s="13">
         <v>45627</v>
       </c>
-      <c r="N1" s="16">
+      <c r="O1" s="13">
         <v>45658</v>
       </c>
-      <c r="O1" s="16">
+      <c r="P1" s="13">
         <v>45689</v>
       </c>
-      <c r="P1" s="16">
+      <c r="Q1" s="13">
         <v>45717</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1350,33 +1363,27 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="9">
-        <f>SUM(E2:J2)</f>
-        <v>2</v>
-      </c>
-      <c r="R2" s="9">
-        <f>SUM(K2:P2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="10">
-        <f>Q2+R2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1388,33 +1395,27 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q66" si="0">SUM(E3:J3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <f t="shared" ref="R3:R66" si="1">SUM(K3:P3)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <f t="shared" ref="S3:S66" si="2">Q3+R3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1426,33 +1427,27 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1464,33 +1459,27 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1502,33 +1491,27 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1540,33 +1523,27 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1578,33 +1555,27 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1616,33 +1587,27 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1654,33 +1619,27 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1692,33 +1651,27 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q11" s="11"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1730,33 +1683,27 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1768,33 +1715,27 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1806,33 +1747,27 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1844,33 +1779,27 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1882,33 +1811,27 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1920,33 +1843,27 @@
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1958,33 +1875,27 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1996,33 +1907,27 @@
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2034,33 +1939,27 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2072,33 +1971,27 @@
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2110,33 +2003,27 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q22" s="8"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2148,33 +2035,27 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2186,33 +2067,27 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2224,33 +2099,27 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -2262,33 +2131,27 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2300,33 +2163,27 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2338,33 +2195,27 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2376,33 +2227,27 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q29" s="11"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2414,33 +2259,27 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q30" s="8"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -2452,33 +2291,27 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q31" s="11"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2490,33 +2323,27 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q32" s="8"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2528,33 +2355,27 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2566,33 +2387,27 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -2604,33 +2419,27 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q35" s="11"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2642,33 +2451,27 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q36" s="8"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -2680,33 +2483,27 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q37" s="11"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2718,33 +2515,27 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q38" s="8"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -2756,33 +2547,27 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q39" s="11"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2794,33 +2579,27 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q40" s="8"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2832,33 +2611,27 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q41" s="11"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2870,33 +2643,27 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q42" s="8"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2908,33 +2675,27 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q43" s="11"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2946,33 +2707,27 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q44" s="8"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -2984,33 +2739,27 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q45" s="11"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3022,33 +2771,27 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q46" s="8"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -3060,33 +2803,27 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q47" s="11"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -3098,33 +2835,27 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q48" s="8"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D49" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -3136,33 +2867,27 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q49" s="11"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D50" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -3174,33 +2899,27 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q50" s="8"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D51" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -3212,33 +2931,27 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q51" s="11"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D52" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3250,33 +2963,27 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q52" s="8"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D53" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -3288,33 +2995,27 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q53" s="11"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D54" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -3326,33 +3027,27 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q54" s="8"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="10"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D55" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -3364,33 +3059,27 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q55" s="11"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D56" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -3402,33 +3091,27 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
-      <c r="Q56" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q56" s="8"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="10"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -3440,33 +3123,27 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q57" s="11"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D58" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -3478,33 +3155,27 @@
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
-      <c r="Q58" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q58" s="8"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="10"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -3516,33 +3187,27 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q59" s="11"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D60" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3554,33 +3219,27 @@
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
-      <c r="Q60" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q60" s="8"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="10"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -3592,33 +3251,27 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q61" s="11"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D62" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -3630,33 +3283,27 @@
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
-      <c r="Q62" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S62" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q62" s="8"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -3668,33 +3315,27 @@
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q63" s="11"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D64" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -3706,33 +3347,27 @@
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
-      <c r="Q64" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q64" s="8"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="10"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D65" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -3744,33 +3379,27 @@
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q65" s="11"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -3782,33 +3411,27 @@
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
-      <c r="Q66" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q66" s="8"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="10"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3820,33 +3443,27 @@
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="3">
-        <f t="shared" ref="Q67:Q111" si="3">SUM(E67:J67)</f>
-        <v>0</v>
-      </c>
-      <c r="R67" s="3">
-        <f t="shared" ref="R67:R111" si="4">SUM(K67:P67)</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="2">
-        <f t="shared" ref="S67:S111" si="5">Q67+R67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q67" s="11"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D68" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -3858,33 +3475,27 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R68" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q68" s="8"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="10"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D69" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -3896,33 +3507,27 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q69" s="11"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D70" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -3934,33 +3539,27 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q70" s="8"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="10"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D71" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -3972,33 +3571,27 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q71" s="11"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -4010,33 +3603,27 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
-      <c r="Q72" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R72" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S72" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q72" s="8"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="10"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D73" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -4048,33 +3635,27 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q73" s="11"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D74" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -4086,33 +3667,27 @@
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
-      <c r="Q74" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q74" s="8"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="10"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D75" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -4124,33 +3699,27 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S75" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q75" s="11"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D76" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -4162,33 +3731,27 @@
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
-      <c r="Q76" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R76" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S76" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q76" s="8"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="10"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D77" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -4200,33 +3763,27 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q77" s="11"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D78" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -4238,33 +3795,27 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R78" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S78" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q78" s="8"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="10"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D79" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -4276,33 +3827,27 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q79" s="11"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D80" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -4314,33 +3859,27 @@
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S80" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q80" s="8"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="10"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D81" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -4352,33 +3891,27 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q81" s="11"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D82" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -4390,33 +3923,27 @@
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
-      <c r="Q82" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R82" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S82" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q82" s="8"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="10"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D83" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -4428,33 +3955,27 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q83" s="11"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D84" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -4466,33 +3987,27 @@
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
-      <c r="Q84" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R84" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S84" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q84" s="8"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="10"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D85" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -4504,33 +4019,27 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q85" s="11"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D86" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -4542,33 +4051,27 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
-      <c r="Q86" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S86" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q86" s="8"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="10"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D87" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -4580,33 +4083,27 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S87" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q87" s="11"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D88" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -4618,33 +4115,27 @@
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
-      <c r="Q88" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q88" s="8"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="10"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D89" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -4656,33 +4147,27 @@
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q89" s="11"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D90" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -4694,33 +4179,27 @@
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
-      <c r="Q90" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q90" s="8"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="10"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D91" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -4732,33 +4211,27 @@
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q91" s="11"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D92" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -4770,33 +4243,27 @@
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q92" s="8"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="10"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D93" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -4808,33 +4275,27 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="Q93" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q93" s="11"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D94" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -4846,33 +4307,27 @@
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
-      <c r="Q94" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S94" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q94" s="8"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="10"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="D95" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -4884,33 +4339,27 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="Q95" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q95" s="11"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="2"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D96" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -4922,33 +4371,27 @@
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
-      <c r="Q96" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q96" s="8"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="10"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D97" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -4960,33 +4403,27 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="Q97" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R97" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S97" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q97" s="11"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="2"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D98" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -4998,33 +4435,27 @@
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
-      <c r="Q98" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R98" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q98" s="8"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="10"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D99" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -5036,33 +4467,27 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="Q99" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R99" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S99" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q99" s="11"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="2"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D100" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -5074,33 +4499,27 @@
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
-      <c r="Q100" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R100" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q100" s="8"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="10"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D101" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -5112,33 +4531,27 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="Q101" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S101" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q101" s="11"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="2"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D102" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -5150,33 +4563,27 @@
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
-      <c r="Q102" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q102" s="8"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="10"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D103" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -5188,33 +4595,27 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S103" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q103" s="11"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="2"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D104" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -5226,33 +4627,27 @@
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
-      <c r="Q104" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R104" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S104" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q104" s="8"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="10"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D105" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -5264,33 +4659,27 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="Q105" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R105" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S105" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q105" s="11"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="2"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D106" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -5302,33 +4691,27 @@
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
-      <c r="Q106" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R106" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S106" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q106" s="8"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="10"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D107" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -5340,33 +4723,27 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="Q107" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R107" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S107" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q107" s="11"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D108" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -5378,33 +4755,27 @@
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
-      <c r="Q108" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R108" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S108" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q108" s="8"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="10"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D109" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E109" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -5416,33 +4787,27 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="Q109" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R109" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S109" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q109" s="11"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="2"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D110" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -5454,33 +4819,27 @@
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
-      <c r="Q110" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R110" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S110" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q110" s="8"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="10"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D111" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E111" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -5492,33 +4851,27 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="Q111" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R111" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S111" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q111" s="11"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="2"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D112" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E112" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -5530,33 +4883,27 @@
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
-      <c r="Q112" s="9">
-        <f t="shared" ref="Q112:Q142" si="6">SUM(E112:J112)</f>
-        <v>0</v>
-      </c>
-      <c r="R112" s="9">
-        <f t="shared" ref="R112:R142" si="7">SUM(K112:P112)</f>
-        <v>0</v>
-      </c>
-      <c r="S112" s="10">
-        <f t="shared" ref="S112:S142" si="8">Q112+R112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q112" s="8"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="10"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="C113" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D113" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -5568,33 +4915,27 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="Q113" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R113" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S113" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q113" s="11"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="2"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="C114" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D114" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E114" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -5606,33 +4947,27 @@
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
-      <c r="Q114" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R114" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S114" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q114" s="8"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="10"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D115" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -5644,33 +4979,27 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
-      <c r="Q115" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R115" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S115" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q115" s="11"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="2"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="C116" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D116" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E116" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -5682,33 +5011,27 @@
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
-      <c r="Q116" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R116" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S116" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q116" s="8"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="10"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D117" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E117" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -5720,33 +5043,27 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="Q117" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R117" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S117" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q117" s="11"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="2"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D118" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -5758,33 +5075,27 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
-      <c r="Q118" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R118" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S118" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q118" s="8"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="10"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D119" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -5796,33 +5107,27 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
-      <c r="Q119" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R119" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S119" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q119" s="11"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="2"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D120" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -5834,33 +5139,27 @@
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
-      <c r="Q120" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R120" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S120" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q120" s="8"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="10"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D121" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -5872,33 +5171,27 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R121" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S121" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q121" s="11"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="2"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D122" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -5910,33 +5203,27 @@
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
-      <c r="Q122" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R122" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S122" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q122" s="8"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="10"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D123" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -5948,33 +5235,27 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
-      <c r="Q123" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R123" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S123" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q123" s="11"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="2"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D124" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -5986,33 +5267,27 @@
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
-      <c r="Q124" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R124" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S124" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q124" s="8"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="10"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D125" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -6024,33 +5299,27 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
-      <c r="Q125" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S125" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q125" s="11"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="2"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D126" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -6062,33 +5331,27 @@
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
-      <c r="Q126" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R126" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S126" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q126" s="8"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="10"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D127" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -6100,33 +5363,27 @@
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
-      <c r="Q127" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R127" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S127" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q127" s="11"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="2"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="C128" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D128" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -6138,33 +5395,27 @@
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
-      <c r="Q128" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R128" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S128" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q128" s="8"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="10"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="C129" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D129" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E129" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -6176,33 +5427,27 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
-      <c r="Q129" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R129" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S129" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q129" s="11"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="2"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D130" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E130" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -6214,33 +5459,27 @@
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
-      <c r="Q130" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R130" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S130" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q130" s="8"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="10"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D131" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -6252,33 +5491,27 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
-      <c r="Q131" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R131" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S131" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q131" s="11"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="2"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D132" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -6290,33 +5523,27 @@
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
-      <c r="Q132" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R132" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S132" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q132" s="8"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="10"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D133" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -6328,33 +5555,27 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
-      <c r="Q133" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R133" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S133" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q133" s="11"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="2"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D134" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -6366,33 +5587,27 @@
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
-      <c r="Q134" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R134" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S134" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q134" s="8"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
+      <c r="T134" s="10"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D135" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -6404,33 +5619,27 @@
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
-      <c r="Q135" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R135" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S135" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q135" s="11"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="2"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="C136" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D136" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -6442,33 +5651,27 @@
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
-      <c r="Q136" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R136" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S136" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q136" s="8"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="10"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D137" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E137" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -6480,33 +5683,27 @@
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
-      <c r="Q137" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R137" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S137" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q137" s="11"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="2"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="C138" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D138" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -6518,33 +5715,27 @@
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
-      <c r="Q138" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R138" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S138" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q138" s="8"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="9"/>
+      <c r="T138" s="10"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D139" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -6556,33 +5747,27 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
-      <c r="Q139" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R139" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S139" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q139" s="11"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="2"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D140" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E140" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
@@ -6594,33 +5779,27 @@
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
-      <c r="Q140" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R140" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S140" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q140" s="8"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="9"/>
+      <c r="T140" s="10"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="D141" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E141" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -6632,59 +5811,44 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
-      <c r="Q141" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R141" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S141" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A142" s="12" t="s">
+      <c r="Q141" s="11"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="2"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B142" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="C142" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C142" s="12" t="s">
-        <v>193</v>
-      </c>
       <c r="D142" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E142" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
-      <c r="O142" s="13"/>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R142" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S142" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E143" s="1"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="10"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -6697,9 +5861,9 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E144" s="1"/>
+      <c r="R143" s="1"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -6712,9 +5876,9 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E145" s="1"/>
+      <c r="R144" s="1"/>
+    </row>
+    <row r="145" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -6727,9 +5891,9 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-    </row>
-    <row r="146" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E146" s="1"/>
+      <c r="R145" s="1"/>
+    </row>
+    <row r="146" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -6742,9 +5906,9 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E147" s="1"/>
+      <c r="R146" s="1"/>
+    </row>
+    <row r="147" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -6757,9 +5921,9 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-    </row>
-    <row r="148" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E148" s="1"/>
+      <c r="R147" s="1"/>
+    </row>
+    <row r="148" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -6772,9 +5936,9 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-    </row>
-    <row r="149" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E149" s="1"/>
+      <c r="R148" s="1"/>
+    </row>
+    <row r="149" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -6787,9 +5951,9 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-    </row>
-    <row r="150" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E150" s="1"/>
+      <c r="R149" s="1"/>
+    </row>
+    <row r="150" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -6802,9 +5966,9 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E151" s="1"/>
+      <c r="R150" s="1"/>
+    </row>
+    <row r="151" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -6817,9 +5981,9 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-    </row>
-    <row r="152" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E152" s="1"/>
+      <c r="R151" s="1"/>
+    </row>
+    <row r="152" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -6832,9 +5996,9 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-    </row>
-    <row r="153" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E153" s="1"/>
+      <c r="R152" s="1"/>
+    </row>
+    <row r="153" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -6847,9 +6011,9 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E154" s="1"/>
+      <c r="R153" s="1"/>
+    </row>
+    <row r="154" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -6862,9 +6026,9 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-    </row>
-    <row r="155" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E155" s="1"/>
+      <c r="R154" s="1"/>
+    </row>
+    <row r="155" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -6877,9 +6041,9 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E156" s="1"/>
+      <c r="R155" s="1"/>
+    </row>
+    <row r="156" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -6892,9 +6056,9 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E157" s="1"/>
+      <c r="R156" s="1"/>
+    </row>
+    <row r="157" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -6907,9 +6071,9 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E158" s="1"/>
+      <c r="R157" s="1"/>
+    </row>
+    <row r="158" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -6922,9 +6086,9 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-    </row>
-    <row r="159" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E159" s="1"/>
+      <c r="R158" s="1"/>
+    </row>
+    <row r="159" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -6937,9 +6101,9 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-    </row>
-    <row r="160" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E160" s="1"/>
+      <c r="R159" s="1"/>
+    </row>
+    <row r="160" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -6952,9 +6116,9 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E161" s="1"/>
+      <c r="R160" s="1"/>
+    </row>
+    <row r="161" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -6967,9 +6131,9 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E162" s="1"/>
+      <c r="R161" s="1"/>
+    </row>
+    <row r="162" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -6982,9 +6146,9 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E163" s="1"/>
+      <c r="R162" s="1"/>
+    </row>
+    <row r="163" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -6997,9 +6161,9 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E164" s="1"/>
+      <c r="R163" s="1"/>
+    </row>
+    <row r="164" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -7012,9 +6176,9 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E165" s="1"/>
+      <c r="R164" s="1"/>
+    </row>
+    <row r="165" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -7027,9 +6191,9 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E166" s="1"/>
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -7042,9 +6206,9 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E167" s="1"/>
+      <c r="R166" s="1"/>
+    </row>
+    <row r="167" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -7057,9 +6221,9 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-    </row>
-    <row r="168" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E168" s="1"/>
+      <c r="R167" s="1"/>
+    </row>
+    <row r="168" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -7072,9 +6236,9 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E169" s="1"/>
+      <c r="R168" s="1"/>
+    </row>
+    <row r="169" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -7087,9 +6251,9 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E170" s="1"/>
+      <c r="R169" s="1"/>
+    </row>
+    <row r="170" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -7102,9 +6266,9 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-    </row>
-    <row r="171" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E171" s="1"/>
+      <c r="R170" s="1"/>
+    </row>
+    <row r="171" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -7117,9 +6281,9 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E172" s="1"/>
+      <c r="R171" s="1"/>
+    </row>
+    <row r="172" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -7132,9 +6296,9 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E173" s="1"/>
+      <c r="R172" s="1"/>
+    </row>
+    <row r="173" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -7147,9 +6311,9 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E174" s="1"/>
+      <c r="R173" s="1"/>
+    </row>
+    <row r="174" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -7162,9 +6326,9 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E175" s="1"/>
+      <c r="R174" s="1"/>
+    </row>
+    <row r="175" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -7177,9 +6341,9 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E176" s="1"/>
+      <c r="R175" s="1"/>
+    </row>
+    <row r="176" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -7192,9 +6356,9 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E177" s="1"/>
+      <c r="R176" s="1"/>
+    </row>
+    <row r="177" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -7207,9 +6371,9 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E178" s="1"/>
+      <c r="R177" s="1"/>
+    </row>
+    <row r="178" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -7222,9 +6386,9 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E179" s="1"/>
+      <c r="R178" s="1"/>
+    </row>
+    <row r="179" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -7237,9 +6401,9 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E180" s="1"/>
+      <c r="R179" s="1"/>
+    </row>
+    <row r="180" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -7252,9 +6416,9 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-    </row>
-    <row r="181" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E181" s="1"/>
+      <c r="R180" s="1"/>
+    </row>
+    <row r="181" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -7267,9 +6431,9 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E182" s="1"/>
+      <c r="R181" s="1"/>
+    </row>
+    <row r="182" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -7282,9 +6446,9 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E183" s="1"/>
+      <c r="R182" s="1"/>
+    </row>
+    <row r="183" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -7297,9 +6461,9 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E184" s="1"/>
+      <c r="R183" s="1"/>
+    </row>
+    <row r="184" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -7312,9 +6476,9 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E185" s="1"/>
+      <c r="R184" s="1"/>
+    </row>
+    <row r="185" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -7327,9 +6491,9 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E186" s="1"/>
+      <c r="R185" s="1"/>
+    </row>
+    <row r="186" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -7342,9 +6506,9 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E187" s="1"/>
+      <c r="R186" s="1"/>
+    </row>
+    <row r="187" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -7357,9 +6521,9 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E188" s="1"/>
+      <c r="R187" s="1"/>
+    </row>
+    <row r="188" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -7372,9 +6536,9 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E189" s="1"/>
+      <c r="R188" s="1"/>
+    </row>
+    <row r="189" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -7387,9 +6551,9 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E190" s="1"/>
+      <c r="R189" s="1"/>
+    </row>
+    <row r="190" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -7402,9 +6566,9 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E191" s="1"/>
+      <c r="R190" s="1"/>
+    </row>
+    <row r="191" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -7417,9 +6581,9 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E192" s="1"/>
+      <c r="R191" s="1"/>
+    </row>
+    <row r="192" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -7432,9 +6596,9 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E193" s="1"/>
+      <c r="R192" s="1"/>
+    </row>
+    <row r="193" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -7447,9 +6611,9 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E194" s="1"/>
+      <c r="R193" s="1"/>
+    </row>
+    <row r="194" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -7462,9 +6626,9 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-    </row>
-    <row r="195" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E195" s="1"/>
+      <c r="R194" s="1"/>
+    </row>
+    <row r="195" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -7477,9 +6641,9 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-    </row>
-    <row r="196" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E196" s="1"/>
+      <c r="R195" s="1"/>
+    </row>
+    <row r="196" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -7492,9 +6656,9 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-    </row>
-    <row r="197" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E197" s="1"/>
+      <c r="R196" s="1"/>
+    </row>
+    <row r="197" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -7507,9 +6671,9 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-    </row>
-    <row r="198" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E198" s="1"/>
+      <c r="R197" s="1"/>
+    </row>
+    <row r="198" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -7522,9 +6686,9 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-    </row>
-    <row r="199" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E199" s="1"/>
+      <c r="R198" s="1"/>
+    </row>
+    <row r="199" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -7537,9 +6701,9 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-    </row>
-    <row r="200" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E200" s="1"/>
+      <c r="R199" s="1"/>
+    </row>
+    <row r="200" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -7552,9 +6716,9 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-    </row>
-    <row r="201" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E201" s="1"/>
+      <c r="R200" s="1"/>
+    </row>
+    <row r="201" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -7567,9 +6731,9 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-    </row>
-    <row r="202" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E202" s="1"/>
+      <c r="R201" s="1"/>
+    </row>
+    <row r="202" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -7582,9 +6746,9 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-    </row>
-    <row r="203" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E203" s="1"/>
+      <c r="R202" s="1"/>
+    </row>
+    <row r="203" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -7597,9 +6761,9 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-    </row>
-    <row r="204" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E204" s="1"/>
+      <c r="R203" s="1"/>
+    </row>
+    <row r="204" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -7612,9 +6776,9 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-    </row>
-    <row r="205" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E205" s="1"/>
+      <c r="R204" s="1"/>
+    </row>
+    <row r="205" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -7627,9 +6791,9 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-    </row>
-    <row r="206" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E206" s="1"/>
+      <c r="R205" s="1"/>
+    </row>
+    <row r="206" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -7642,9 +6806,9 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E207" s="1"/>
+      <c r="R206" s="1"/>
+    </row>
+    <row r="207" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -7657,9 +6821,9 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E208" s="1"/>
+      <c r="R207" s="1"/>
+    </row>
+    <row r="208" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -7672,9 +6836,9 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-    </row>
-    <row r="209" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E209" s="1"/>
+      <c r="R208" s="1"/>
+    </row>
+    <row r="209" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -7687,9 +6851,9 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E210" s="1"/>
+      <c r="R209" s="1"/>
+    </row>
+    <row r="210" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -7702,9 +6866,9 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-    </row>
-    <row r="211" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E211" s="1"/>
+      <c r="R210" s="1"/>
+    </row>
+    <row r="211" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -7717,9 +6881,9 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-    </row>
-    <row r="212" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E212" s="1"/>
+      <c r="R211" s="1"/>
+    </row>
+    <row r="212" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -7732,9 +6896,9 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E213" s="1"/>
+      <c r="R212" s="1"/>
+    </row>
+    <row r="213" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -7747,9 +6911,9 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-    </row>
-    <row r="214" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E214" s="1"/>
+      <c r="R213" s="1"/>
+    </row>
+    <row r="214" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -7762,9 +6926,9 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-    </row>
-    <row r="215" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E215" s="1"/>
+      <c r="R214" s="1"/>
+    </row>
+    <row r="215" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -7777,9 +6941,9 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-    </row>
-    <row r="216" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E216" s="1"/>
+      <c r="R215" s="1"/>
+    </row>
+    <row r="216" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -7792,9 +6956,9 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-    </row>
-    <row r="217" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E217" s="1"/>
+      <c r="R216" s="1"/>
+    </row>
+    <row r="217" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -7807,9 +6971,9 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-    </row>
-    <row r="218" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E218" s="1"/>
+      <c r="R217" s="1"/>
+    </row>
+    <row r="218" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -7822,14 +6986,16 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="E2:P1048576" name="OPEN 1"/>
+    <protectedRange sqref="F2:Q1048576" name="OPEN 1"/>
     <protectedRange sqref="A143:XFD187" name="OPEN 2"/>
-    <protectedRange sqref="E1:P1" name="OPEN 1_1"/>
+    <protectedRange sqref="F1:Q1" name="OPEN 1_1"/>
   </protectedRanges>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/public/files/Template_Labor_New_2024_New.xlsx
+++ b/public/files/Template_Labor_New_2024_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Project Management\01_Source code\new_cubic_pro\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fabian\00_Project\cubic_pro\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B885964D-F7E5-4886-8A1C-66021712B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A711F34-FB13-465A-A3DB-907C89CF9380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Labor" sheetId="1" r:id="rId1"/>
@@ -771,15 +771,6 @@
     <t>SGA0048</t>
   </si>
   <si>
-    <t>FY 2024 1st</t>
-  </si>
-  <si>
-    <t>FY 2024 2nd</t>
-  </si>
-  <si>
-    <t>FY 2024 TOTAL</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -790,6 +781,15 @@
   </si>
   <si>
     <t>HRG1</t>
+  </si>
+  <si>
+    <t>FY 2025 1st</t>
+  </si>
+  <si>
+    <t>FY 2025 2nd</t>
+  </si>
+  <si>
+    <t>FY 2025 TOTAL</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1276,7 +1276,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1291,54 +1291,54 @@
         <v>3</v>
       </c>
       <c r="F1" s="13">
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="G1" s="13">
-        <v>45413</v>
+        <v>45778</v>
       </c>
       <c r="H1" s="13">
-        <v>45444</v>
+        <v>45809</v>
       </c>
       <c r="I1" s="13">
-        <v>45474</v>
+        <v>45839</v>
       </c>
       <c r="J1" s="13">
-        <v>45505</v>
+        <v>45870</v>
       </c>
       <c r="K1" s="13">
-        <v>45536</v>
+        <v>45901</v>
       </c>
       <c r="L1" s="13">
-        <v>45566</v>
+        <v>45931</v>
       </c>
       <c r="M1" s="13">
-        <v>45597</v>
+        <v>45962</v>
       </c>
       <c r="N1" s="13">
-        <v>45627</v>
+        <v>45992</v>
       </c>
       <c r="O1" s="13">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="P1" s="13">
-        <v>45689</v>
+        <v>46054</v>
       </c>
       <c r="Q1" s="13">
-        <v>45717</v>
+        <v>46082</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>8</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>13</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>29</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>31</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>33</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>35</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>37</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>39</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>41</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>43</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>45</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>47</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>49</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>51</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>53</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>55</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>57</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>59</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>61</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>63</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>67</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>69</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>71</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>73</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>75</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>77</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>79</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>81</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>83</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>85</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>87</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>89</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>91</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>93</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>95</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>4</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>5</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>6</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>7</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>8</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>9</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>10</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>11</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>12</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>13</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>27</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>29</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>30</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>31</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>33</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>35</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>37</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>39</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>41</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>43</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>45</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>47</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>49</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>51</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>53</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>55</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>57</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>59</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>61</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>63</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>65</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>67</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>69</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>71</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>73</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>75</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>76</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>77</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>79</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>81</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>83</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>85</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>87</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>89</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>91</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>93</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>95</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>4</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>5</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>6</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>7</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>8</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>9</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>10</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>11</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>12</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>13</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>27</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>29</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>30</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>31</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>33</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>35</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>37</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>39</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>41</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>43</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>45</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>47</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>49</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>51</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>53</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>55</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>57</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>59</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>61</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>63</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>65</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>67</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>69</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>71</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>73</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>75</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>76</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>77</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>79</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>81</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>83</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>85</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>87</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>89</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>91</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>93</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>95</v>
@@ -7021,7 +7021,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
